--- a/ig/clcore/1.8.5/StructureDefinition-SexoRegistral.xlsx
+++ b/ig/clcore/1.8.5/StructureDefinition-SexoRegistral.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T17:16:23-03:00</t>
+    <t>2023-11-02T09:44:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -230,7 +230,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSSexoListadoDeis</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -579,7 +579,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="8.5625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
